--- a/Subnet Calculation Table.xlsx
+++ b/Subnet Calculation Table.xlsx
@@ -1,40 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSE\Projects\Faculty_Network_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762B3B25-ABBD-476B-A34A-B0581E77551A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88884856-08A2-4C2A-B4C6-95685FC35D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3E009F2A-B0E2-45A1-B46D-8794A7D4560B}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>Department</t>
   </si>
@@ -42,21 +28,33 @@
     <t>Network Type</t>
   </si>
   <si>
+    <t>VLAN ID</t>
+  </si>
+  <si>
+    <t>VLAN Name</t>
+  </si>
+  <si>
+    <t>Computers</t>
+  </si>
+  <si>
+    <t>Printers</t>
+  </si>
+  <si>
+    <t>Other Devices</t>
+  </si>
+  <si>
     <t>Required IPs</t>
   </si>
   <si>
-    <t>Computers</t>
-  </si>
-  <si>
-    <t>Printers</t>
-  </si>
-  <si>
-    <t>Other Devices</t>
+    <t>30% Growth</t>
   </si>
   <si>
     <t>Total Hosts Needed</t>
   </si>
   <si>
+    <t>Network Address/Prefix</t>
+  </si>
+  <si>
     <t>Subnet Mask</t>
   </si>
   <si>
@@ -66,45 +64,203 @@
     <t>Broadcast Address</t>
   </si>
   <si>
-    <t>Network Address/Prefix</t>
-  </si>
-  <si>
-    <t>30% Growth</t>
-  </si>
-  <si>
     <t>COM</t>
   </si>
   <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Civil</t>
+  </si>
+  <si>
+    <t>Mech</t>
+  </si>
+  <si>
+    <t>IDS</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>CCTV</t>
+  </si>
+  <si>
     <t>Student</t>
   </si>
   <si>
     <t>Staff</t>
   </si>
   <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>Civil</t>
-  </si>
-  <si>
-    <t>Mech</t>
-  </si>
-  <si>
-    <t>IDS</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>CCTV</t>
+    <t>Computer_Students</t>
+  </si>
+  <si>
+    <t>Computer_Staff</t>
+  </si>
+  <si>
+    <t>EEE_Students</t>
+  </si>
+  <si>
+    <t>EEE_Staff</t>
+  </si>
+  <si>
+    <t>Civil_Students</t>
+  </si>
+  <si>
+    <t>Civil_Staff</t>
+  </si>
+  <si>
+    <t>Mech_Students</t>
+  </si>
+  <si>
+    <t>Mech_Staff</t>
+  </si>
+  <si>
+    <t>IDS_Students</t>
+  </si>
+  <si>
+    <t>IDS_Staff</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>192.168.1.0/23</t>
+  </si>
+  <si>
+    <t>192.168.3.0/25</t>
+  </si>
+  <si>
+    <t>192.168.4.0/24</t>
+  </si>
+  <si>
+    <t>192.168.5.0/25</t>
+  </si>
+  <si>
+    <t>192.168.6.0/25</t>
+  </si>
+  <si>
+    <t>192.168.7.0/26</t>
+  </si>
+  <si>
+    <t>192.168.8.0/25</t>
+  </si>
+  <si>
+    <t>192.168.9.0/26</t>
+  </si>
+  <si>
+    <t>192.168.10.0/27</t>
+  </si>
+  <si>
+    <t>192.168.11.0/26</t>
+  </si>
+  <si>
+    <t>192.168.12.0/26</t>
+  </si>
+  <si>
+    <t>192.168.13.0/26</t>
+  </si>
+  <si>
+    <t>255.255.254.0</t>
+  </si>
+  <si>
+    <t>255.255.255.128</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>255.255.255.224</t>
+  </si>
+  <si>
+    <t>192.168.1.1 - 192.168.2.254</t>
+  </si>
+  <si>
+    <t>192.168.3.1 - 192.168.3.126</t>
+  </si>
+  <si>
+    <t>192.168.4.1 - 192.168.4.254</t>
+  </si>
+  <si>
+    <t>192.168.5.1 - 192.168.5.126</t>
+  </si>
+  <si>
+    <t>192.168.6.1 - 192.168.6.126</t>
+  </si>
+  <si>
+    <t>192.168.7.1 - 192.168.7.62</t>
+  </si>
+  <si>
+    <t>192.168.8.1 - 192.168.8.126</t>
+  </si>
+  <si>
+    <t>192.168.9.1 - 192.168.9.62</t>
+  </si>
+  <si>
+    <t>192.168.10.1 - 192.168.10.30</t>
+  </si>
+  <si>
+    <t>192.168.11.1 - 192.168.11.62</t>
+  </si>
+  <si>
+    <t>192.168.12.1 - 192.168.12.62</t>
+  </si>
+  <si>
+    <t>192.168.13.1 - 192.168.13.62</t>
+  </si>
+  <si>
+    <t>192.168.2.255</t>
+  </si>
+  <si>
+    <t>192.168.3.127</t>
+  </si>
+  <si>
+    <t>192.168.4.255</t>
+  </si>
+  <si>
+    <t>192.168.5.127</t>
+  </si>
+  <si>
+    <t>192.168.6.127</t>
+  </si>
+  <si>
+    <t>192.168.7.63</t>
+  </si>
+  <si>
+    <t>192.168.8.127</t>
+  </si>
+  <si>
+    <t>192.168.9.63</t>
+  </si>
+  <si>
+    <t>192.168.10.31</t>
+  </si>
+  <si>
+    <t>192.168.11.63</t>
+  </si>
+  <si>
+    <t>192.168.12.63</t>
+  </si>
+  <si>
+    <t>192.168.13.63</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,7 +276,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,18 +284,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -152,9 +326,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,44 +336,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -227,31 +401,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -279,26 +436,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -307,551 +447,765 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0C4418-3DE6-4164-B313-9A5EFD9CA5D8}">
-  <dimension ref="A1:L13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="9" width="22.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" customWidth="1"/>
-    <col min="12" max="12" width="28" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="33" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>250</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>250</v>
+      </c>
+      <c r="I2">
+        <v>75</v>
+      </c>
+      <c r="J2">
+        <v>325</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>77</v>
+      </c>
+      <c r="I3">
+        <v>23</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>250</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>C2+D2+E2</f>
-        <v>250</v>
-      </c>
-      <c r="G2">
-        <f>ROUND(F2 * 0.3, 0)</f>
-        <v>75</v>
-      </c>
-      <c r="H2">
-        <f>F2+G2</f>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F13" si="0">C3+D3+E3</f>
-        <v>77</v>
-      </c>
-      <c r="G3">
-        <f>ROUND(F3 * 0.3, 0)</f>
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H13" si="1">F3+G3</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
         <v>150</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>150</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G13" si="2">ROUND(F4 * 0.3, 0)</f>
+      <c r="I4">
         <v>45</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
+      <c r="J4">
         <v>195</v>
       </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
         <v>50</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>15</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
+      <c r="H5">
         <v>67</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
+      <c r="I5">
         <v>20</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
+      <c r="J5">
         <v>87</v>
       </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
         <v>75</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>75</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
+      <c r="I6">
         <v>23</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
+      <c r="J6">
         <v>98</v>
       </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C7">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
         <v>25</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
+      <c r="H7">
         <v>32</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
+      <c r="I7">
         <v>10</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
+      <c r="J7">
         <v>42</v>
       </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
         <v>75</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>75</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
+      <c r="I8">
         <v>23</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
+      <c r="J8">
         <v>98</v>
       </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C9">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
         <v>25</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>10</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
+      <c r="H9">
         <v>37</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
+      <c r="I9">
         <v>11</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
+      <c r="J9">
         <v>48</v>
       </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10">
         <v>15</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>15</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
+      <c r="I10">
         <v>5</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
+      <c r="J10">
         <v>20</v>
       </c>
+      <c r="K10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C11">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
         <v>25</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
+      <c r="H11">
         <v>32</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
+      <c r="J11">
         <v>42</v>
       </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12">
         <v>25</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>5</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>30</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
+      <c r="I12">
         <v>9</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
+      <c r="J12">
         <v>39</v>
       </c>
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
         <v>50</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>50</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
+      <c r="I13">
         <v>15</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
+      <c r="J13">
         <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
